--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il23a-Il23r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il23a-Il23r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.009404666666667</v>
+        <v>3.109891</v>
       </c>
       <c r="H2">
-        <v>3.028214</v>
+        <v>9.329673</v>
       </c>
       <c r="I2">
-        <v>0.1947134031542885</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="J2">
-        <v>0.1947134031542885</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,27 +561,27 @@
         <v>0.043329</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7689945869198687</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7689945869198687</v>
       </c>
       <c r="Q2">
-        <v>0.01457883160066666</v>
+        <v>0.04491615571299999</v>
       </c>
       <c r="R2">
-        <v>0.131209484406</v>
+        <v>0.404245401417</v>
       </c>
       <c r="S2">
-        <v>0.1947134031542885</v>
+        <v>0.3365685102918531</v>
       </c>
       <c r="T2">
-        <v>0.1947134031542885</v>
+        <v>0.3365685102918531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.963940333333333</v>
+        <v>3.109891</v>
       </c>
       <c r="H3">
-        <v>8.891821</v>
+        <v>9.329673</v>
       </c>
       <c r="I3">
-        <v>0.5717418673676197</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="J3">
-        <v>0.5717418673676197</v>
+        <v>0.4376734453228661</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,33 +617,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.014443</v>
+        <v>0.004338666666666667</v>
       </c>
       <c r="N3">
-        <v>0.043329</v>
+        <v>0.013016</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2310054130801314</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2310054130801313</v>
       </c>
       <c r="Q3">
-        <v>0.04280819023433333</v>
+        <v>0.01349278041866667</v>
       </c>
       <c r="R3">
-        <v>0.385273712109</v>
+        <v>0.121435023768</v>
       </c>
       <c r="S3">
-        <v>0.5717418673676197</v>
+        <v>0.101104935031013</v>
       </c>
       <c r="T3">
-        <v>0.5717418673676197</v>
+        <v>0.1011049350310129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6558763333333333</v>
+        <v>2.963940333333333</v>
       </c>
       <c r="H4">
-        <v>1.967629</v>
+        <v>8.891821</v>
       </c>
       <c r="I4">
-        <v>0.1265180527978107</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="J4">
-        <v>0.1265180527978107</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,27 +685,27 @@
         <v>0.043329</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7689945869198687</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7689945869198687</v>
       </c>
       <c r="Q4">
-        <v>0.009472821882333332</v>
+        <v>0.04280819023433333</v>
       </c>
       <c r="R4">
-        <v>0.085255396941</v>
+        <v>0.385273712109</v>
       </c>
       <c r="S4">
-        <v>0.1265180527978107</v>
+        <v>0.3207729732598148</v>
       </c>
       <c r="T4">
-        <v>0.1265180527978107</v>
+        <v>0.3207729732598148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5548319999999999</v>
+        <v>2.963940333333333</v>
       </c>
       <c r="H5">
-        <v>1.664496</v>
+        <v>8.891821</v>
       </c>
       <c r="I5">
-        <v>0.107026676680281</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="J5">
-        <v>0.107026676680281</v>
+        <v>0.417132940486147</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
+        <v>0.004338666666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.013016</v>
+      </c>
+      <c r="O5">
+        <v>0.2310054130801314</v>
+      </c>
+      <c r="P5">
+        <v>0.2310054130801313</v>
+      </c>
+      <c r="Q5">
+        <v>0.01285954912622222</v>
+      </c>
+      <c r="R5">
+        <v>0.115735942136</v>
+      </c>
+      <c r="S5">
+        <v>0.09635996722633225</v>
+      </c>
+      <c r="T5">
+        <v>0.09635996722633224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8168863333333333</v>
+      </c>
+      <c r="H6">
+        <v>2.450659</v>
+      </c>
+      <c r="I6">
+        <v>0.1149652691837634</v>
+      </c>
+      <c r="J6">
+        <v>0.1149652691837634</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
         <v>0.014443</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>0.043329</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.008013438575999997</v>
-      </c>
-      <c r="R5">
-        <v>0.07212094718399999</v>
-      </c>
-      <c r="S5">
-        <v>0.107026676680281</v>
-      </c>
-      <c r="T5">
-        <v>0.107026676680281</v>
+      <c r="O6">
+        <v>0.7689945869198687</v>
+      </c>
+      <c r="P6">
+        <v>0.7689945869198687</v>
+      </c>
+      <c r="Q6">
+        <v>0.01179828931233333</v>
+      </c>
+      <c r="R6">
+        <v>0.106184603811</v>
+      </c>
+      <c r="S6">
+        <v>0.08840766968609966</v>
+      </c>
+      <c r="T6">
+        <v>0.08840766968609966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8168863333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.450659</v>
+      </c>
+      <c r="I7">
+        <v>0.1149652691837634</v>
+      </c>
+      <c r="J7">
+        <v>0.1149652691837634</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.004338666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.013016</v>
+      </c>
+      <c r="O7">
+        <v>0.2310054130801314</v>
+      </c>
+      <c r="P7">
+        <v>0.2310054130801313</v>
+      </c>
+      <c r="Q7">
+        <v>0.003544197504888889</v>
+      </c>
+      <c r="R7">
+        <v>0.031897777544</v>
+      </c>
+      <c r="S7">
+        <v>0.02655759949766377</v>
+      </c>
+      <c r="T7">
+        <v>0.02655759949766376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2147876666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.644363</v>
+      </c>
+      <c r="I8">
+        <v>0.03022834500722351</v>
+      </c>
+      <c r="J8">
+        <v>0.03022834500722351</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.014443</v>
+      </c>
+      <c r="N8">
+        <v>0.043329</v>
+      </c>
+      <c r="O8">
+        <v>0.7689945869198687</v>
+      </c>
+      <c r="P8">
+        <v>0.7689945869198687</v>
+      </c>
+      <c r="Q8">
+        <v>0.003102178269666667</v>
+      </c>
+      <c r="R8">
+        <v>0.027919604427</v>
+      </c>
+      <c r="S8">
+        <v>0.02324543368210112</v>
+      </c>
+      <c r="T8">
+        <v>0.02324543368210111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2147876666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.644363</v>
+      </c>
+      <c r="I9">
+        <v>0.03022834500722351</v>
+      </c>
+      <c r="J9">
+        <v>0.03022834500722351</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.004338666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.013016</v>
+      </c>
+      <c r="O9">
+        <v>0.2310054130801314</v>
+      </c>
+      <c r="P9">
+        <v>0.2310054130801313</v>
+      </c>
+      <c r="Q9">
+        <v>0.0009318920897777779</v>
+      </c>
+      <c r="R9">
+        <v>0.008387028808</v>
+      </c>
+      <c r="S9">
+        <v>0.006982911325122394</v>
+      </c>
+      <c r="T9">
+        <v>0.006982911325122392</v>
       </c>
     </row>
   </sheetData>
